--- a/4 semestr/BIT/lab2/lab2.xlsx
+++ b/4 semestr/BIT/lab2/lab2.xlsx
@@ -8,57 +8,60 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VlSU\4 semestr\BIT\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5811E7-6ECF-4981-851E-7E6104302DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E17B883-09EB-49BF-880E-463681B55049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчет о результатах 1" sheetId="3" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Отчет о результатах 1" sheetId="5" r:id="rId1"/>
+    <sheet name="Отчет об устойчивости 1" sheetId="6" r:id="rId2"/>
+    <sheet name="Отчет о пределах 1" sheetId="7" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Лист1!$G$3:$G$7</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Лист1!$B$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Лист1!$C$11</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Лист1!$D$11</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Лист1!$E$11</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Лист1!$G$3:$G$7</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Лист1!$F$11</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Лист1!$B$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Лист1!$C$9</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Лист1!$D$9</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Лист1!$E$9</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">"целое"</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Лист1!$G$3:$G$7</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Лист1!$B$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Лист1!$C$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Лист1!$D$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Лист1!$E$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Лист1!$G$3:$G$7</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Лист1!$F$11</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Лист1!$B$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Лист1!$C$9</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Лист1!$D$9</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">Лист1!$E$9</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">"целое"</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Продукт</t>
   </si>
@@ -150,9 +153,6 @@
     <t>Максимальное число подзадач Без пределов, Максимальное число целочисленных решений Без пределов, Целочисленное отклонение 1%, Считать неотрицательными</t>
   </si>
   <si>
-    <t>Ячейка целевой функции (Максимум)</t>
-  </si>
-  <si>
     <t>Ячейка</t>
   </si>
   <si>
@@ -222,36 +222,18 @@
     <t>$B$11</t>
   </si>
   <si>
-    <t>$B$11&lt;=$B$9</t>
-  </si>
-  <si>
     <t>Привязка</t>
   </si>
   <si>
     <t>$C$11</t>
   </si>
   <si>
-    <t>$C$11&lt;=$C$9</t>
-  </si>
-  <si>
     <t>$D$11</t>
   </si>
   <si>
-    <t>$D$11&lt;=$D$9</t>
-  </si>
-  <si>
     <t>Без привязки</t>
   </si>
   <si>
-    <t>$E$11&lt;=$E$9</t>
-  </si>
-  <si>
-    <t>Отчет создан: 15.03.2022 11:10:20</t>
-  </si>
-  <si>
-    <t>Время решения: 0,031 секунд.</t>
-  </si>
-  <si>
     <t>Число итераций: 0 Число подзадач: 0</t>
   </si>
   <si>
@@ -271,6 +253,75 @@
   </si>
   <si>
     <t>Кол-во Витамины</t>
+  </si>
+  <si>
+    <t>Ячейка целевой функции (Минимум)</t>
+  </si>
+  <si>
+    <t>$B$11&gt;=$B$9</t>
+  </si>
+  <si>
+    <t>$C$11&gt;=$C$9</t>
+  </si>
+  <si>
+    <t>$D$11&gt;=$D$9</t>
+  </si>
+  <si>
+    <t>$E$11&gt;=$E$9</t>
+  </si>
+  <si>
+    <t>Отчет создан: 05.04.2022 20:32:49</t>
+  </si>
+  <si>
+    <t>Время решения: 0,047 секунд.</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет об устойчивости</t>
+  </si>
+  <si>
+    <t>Окончательное</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Приведенн.</t>
+  </si>
+  <si>
+    <t>Градиент</t>
+  </si>
+  <si>
+    <t>Лагранжа</t>
+  </si>
+  <si>
+    <t>Множитель</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о пределах</t>
+  </si>
+  <si>
+    <t>Отчет создан: 05.04.2022 20:32:50</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Нижний</t>
+  </si>
+  <si>
+    <t>Предел</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Верхний</t>
+  </si>
+  <si>
+    <t>#Н/Д</t>
   </si>
 </sst>
 </file>
@@ -311,7 +362,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -350,17 +401,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -372,6 +438,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +727,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7EAE8D-C818-4FC4-8FDA-7C4B6C5AAC99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA5C076-8F90-4A87-BB8A-30E0E57CE20B}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -680,7 +755,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -702,13 +777,13 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -733,142 +808,142 @@
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="5">
-        <v>155.05263157894734</v>
-      </c>
-      <c r="E16" s="5">
-        <v>155.05263157894734</v>
+        <v>52</v>
+      </c>
+      <c r="D16" s="4">
+        <v>150</v>
+      </c>
+      <c r="E16" s="4">
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="6">
-        <v>0.44736842105263169</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0.44736842105263169</v>
-      </c>
-      <c r="F21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="6">
-        <v>1.078947368421052</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1.078947368421052</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="5">
+        <v>0.8333333333333337</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.8333333333333337</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6">
-        <v>6.1578947368421053</v>
-      </c>
-      <c r="E24" s="6">
-        <v>6.1578947368421053</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>37</v>
+      <c r="D24" s="5">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
+      <c r="D25" s="4">
+        <v>3.3333333333333313</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3.3333333333333313</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -877,102 +952,102 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="5">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="5">
+        <v>15.833333333333325</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="6">
-        <v>19.999999999999993</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="6">
-        <v>30</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="6">
-        <v>9.0789473684210478</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.92105263157895223</v>
+      <c r="G32" s="5">
+        <v>5.833333333333325</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="5">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="D33" s="4">
+        <v>40.000000000000007</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="2">
+        <v>46</v>
+      </c>
+      <c r="G33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -982,39 +1057,492 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260BE2E4-DFB2-444E-87D2-9AFACABA5AF9}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.6000000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.8333333333333337</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.3333333333333313</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.1999999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3">
+        <v>15.833333333333325</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40.000000000000007</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.4999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B037566F-2616-481E-920E-AF12517AD326}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1796875" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>150</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>150</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.8333333333333337</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.8333333333333337</v>
+      </c>
+      <c r="G15" s="5">
+        <v>150</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="G16" s="5">
+        <v>150</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.3333333333333313</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.3333333333333313</v>
+      </c>
+      <c r="G17" s="4">
+        <v>150</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1027,8 +1555,8 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
